--- a/data/GOZO_status_goal.xlsx
+++ b/data/GOZO_status_goal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/dissertation_data/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BC0F82-9530-EC4B-B5E8-2E5F4232A438}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC868FAF-77A0-7640-9BC8-763DA50EEDF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16160" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
+    <workbookView xWindow="32140" yWindow="3360" windowWidth="28800" windowHeight="16160" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>66</v>
+        <v>62.5</v>
       </c>
     </row>
   </sheetData>
